--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Ghsr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Ghsr</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,40 +546,40 @@
         <v>0.77603</v>
       </c>
       <c r="I2">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J2">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.671010333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N2">
-        <v>5.013031</v>
+        <v>0.859405</v>
       </c>
       <c r="O2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q2">
-        <v>0.4322513829922222</v>
+        <v>0.07410267357222222</v>
       </c>
       <c r="R2">
-        <v>3.89026244693</v>
+        <v>0.66692406215</v>
       </c>
       <c r="S2">
-        <v>0.6522799752475485</v>
+        <v>0.1090819536769321</v>
       </c>
       <c r="T2">
-        <v>0.6522799752475485</v>
+        <v>0.1090819536769321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,40 +608,40 @@
         <v>0.77603</v>
       </c>
       <c r="I3">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J3">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07106366666666666</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N3">
-        <v>0.213191</v>
+        <v>5.013031</v>
       </c>
       <c r="O3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q3">
-        <v>0.01838251241444444</v>
+        <v>0.4322513829922222</v>
       </c>
       <c r="R3">
-        <v>0.16544261173</v>
+        <v>3.89026244693</v>
       </c>
       <c r="S3">
-        <v>0.02773974870751849</v>
+        <v>0.6362904745993152</v>
       </c>
       <c r="T3">
-        <v>0.02773974870751849</v>
+        <v>0.6362904745993153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,45 +670,45 @@
         <v>0.77603</v>
       </c>
       <c r="I4">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J4">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2047563333333333</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N4">
-        <v>0.614269</v>
+        <v>0.233389</v>
       </c>
       <c r="O4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q4">
-        <v>0.05296568578555555</v>
+        <v>0.02012409618555556</v>
       </c>
       <c r="R4">
-        <v>0.4766911720699999</v>
+        <v>0.18111686567</v>
       </c>
       <c r="S4">
-        <v>0.07992676847905715</v>
+        <v>0.02962343491916559</v>
       </c>
       <c r="T4">
-        <v>0.07992676847905716</v>
+        <v>0.02962343491916559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +717,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08171133333333334</v>
+        <v>0.2586766666666667</v>
       </c>
       <c r="H5">
-        <v>0.245134</v>
+        <v>0.77603</v>
       </c>
       <c r="I5">
-        <v>0.2400535075658758</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J5">
-        <v>0.2400535075658758</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.671010333333333</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N5">
-        <v>5.013031</v>
+        <v>1.109366</v>
       </c>
       <c r="O5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q5">
-        <v>0.1365404823504445</v>
+        <v>0.09565569966444445</v>
       </c>
       <c r="R5">
-        <v>1.228864341154</v>
+        <v>0.8609012969800001</v>
       </c>
       <c r="S5">
-        <v>0.2060435800836728</v>
+        <v>0.1408088277619556</v>
       </c>
       <c r="T5">
-        <v>0.2060435800836728</v>
+        <v>0.1408088277619556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H6">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I6">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J6">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07106366666666666</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N6">
-        <v>0.213191</v>
+        <v>0.859405</v>
       </c>
       <c r="O6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q6">
-        <v>0.005806706954888889</v>
+        <v>0.00681269441388889</v>
       </c>
       <c r="R6">
-        <v>0.052260362594</v>
+        <v>0.06131424972500001</v>
       </c>
       <c r="S6">
-        <v>0.008762490573391284</v>
+        <v>0.01002854526897249</v>
       </c>
       <c r="T6">
-        <v>0.008762490573391285</v>
+        <v>0.01002854526897249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,46 +850,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H7">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2047563333333333</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N7">
-        <v>0.614269</v>
+        <v>5.013031</v>
       </c>
       <c r="O7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q7">
-        <v>0.01673091300511111</v>
+        <v>0.03973941074388889</v>
       </c>
       <c r="R7">
-        <v>0.150578217046</v>
+        <v>0.357654696695</v>
       </c>
       <c r="S7">
-        <v>0.02524743690881177</v>
+        <v>0.0584979239337244</v>
       </c>
       <c r="T7">
-        <v>0.02524743690881177</v>
+        <v>0.0584979239337244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02378166666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.07134500000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.08419530904263167</v>
+      </c>
+      <c r="J8">
+        <v>0.08419530904263166</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.233389</v>
+      </c>
+      <c r="O8">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="P8">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="Q8">
+        <v>0.001850126467222223</v>
+      </c>
+      <c r="R8">
+        <v>0.016651138205</v>
+      </c>
+      <c r="S8">
+        <v>0.002723456521407509</v>
+      </c>
+      <c r="T8">
+        <v>0.002723456521407508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02378166666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.07134500000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.08419530904263167</v>
+      </c>
+      <c r="J9">
+        <v>0.08419530904263166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3697886666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.109366</v>
+      </c>
+      <c r="O9">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="P9">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="Q9">
+        <v>0.008794190807777781</v>
+      </c>
+      <c r="R9">
+        <v>0.07914771727000001</v>
+      </c>
+      <c r="S9">
+        <v>0.01294538331852728</v>
+      </c>
+      <c r="T9">
+        <v>0.01294538331852728</v>
       </c>
     </row>
   </sheetData>
